--- a/Bioinformatics Companies in India Final.xlsx
+++ b/Bioinformatics Companies in India Final.xlsx
@@ -1,17 +1,20 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
+  <bookViews>
+    <workbookView windowWidth="26745" windowHeight="13665"/>
+  </bookViews>
   <sheets>
-    <sheet state="visible" name="Sheet1" sheetId="1" r:id="rId4"/>
+    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <definedNames/>
-  <calcPr/>
+  <calcPr calcId="144525"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="304" uniqueCount="167">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="312" uniqueCount="171">
   <si>
     <t>No</t>
   </si>
@@ -418,7 +421,7 @@
     <t>Healthians</t>
   </si>
   <si>
-    <t xml:space="preserve">xnara biologics </t>
+    <t>xnara biologics</t>
   </si>
   <si>
     <t>Bencos Research solutions</t>
@@ -448,7 +451,51 @@
     <t>i3 Digital health limited</t>
   </si>
   <si>
-    <t>Clinnovo Research Labs</t>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Nimbus Roman No9 L"/>
+        <charset val="134"/>
+      </rPr>
+      <t>Clinnovo</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="-apple-system"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Nimbus Roman No9 L"/>
+        <charset val="134"/>
+      </rPr>
+      <t>Research</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="-apple-system"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Nimbus Roman No9 L"/>
+        <charset val="134"/>
+      </rPr>
+      <t>Labs</t>
+    </r>
   </si>
   <si>
     <t>LifMoTech</t>
@@ -512,45 +559,231 @@
   </si>
   <si>
     <t>30M genomics</t>
+  </si>
+  <si>
+    <t>Tenet Diagnostics</t>
+  </si>
+  <si>
+    <t>Piatrika Biosystems</t>
+  </si>
+  <si>
+    <t>Syncbio technologies</t>
+  </si>
+  <si>
+    <t>Pondy</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-  <fonts count="5">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <numFmts count="4">
+    <numFmt numFmtId="176" formatCode="_ &quot;₹&quot;* #,##0.00_ ;_ &quot;₹&quot;* \-#,##0.00_ ;_ &quot;₹&quot;* &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="177" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="178" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="179" formatCode="_ &quot;₹&quot;* #,##0_ ;_ &quot;₹&quot;* \-#,##0_ ;_ &quot;₹&quot;* &quot;-&quot;_ ;_ @_ "/>
+  </numFmts>
+  <fonts count="26">
     <font>
-      <sz val="10.0"/>
+      <sz val="10"/>
       <color rgb="FF000000"/>
       <name val="Arial"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
       <b/>
+      <sz val="10"/>
       <color theme="1"/>
       <name val="Arial"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="10"/>
       <color theme="1"/>
       <name val="Arial"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
       <u/>
+      <sz val="10"/>
       <color rgb="FF0000FF"/>
+      <name val="Arial"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
     </font>
     <font>
+      <sz val="10"/>
+      <color rgb="FF000000"/>
+      <name val="Nimbus Roman No9 L"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Arial"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="Arial"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="Arial"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="Arial"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Arial"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="Arial"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="Arial"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="Arial"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="Arial"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="Arial"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="Arial"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="Arial"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="Arial"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Arial"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="Arial"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="Arial"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="Arial"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="Arial"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="Arial"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="Arial"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="10"/>
       <color rgb="FF000000"/>
       <name val="-apple-system"/>
+      <charset val="134"/>
     </font>
   </fonts>
-  <fills count="3">
+  <fills count="34">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
-      <patternFill patternType="lightGray"/>
+      <patternFill patternType="gray125"/>
     </fill>
     <fill>
       <patternFill patternType="solid">
@@ -558,49 +791,547 @@
         <bgColor rgb="FFFFFFFF"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="1">
-    <border/>
+  <borders count="10">
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
-  <cellStyleXfs count="1">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" applyAlignment="1" applyFont="1"/>
+  <cellStyleXfs count="49">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="6" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="9" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="5" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="29" borderId="8" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="7" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="9" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="178" fontId="5" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="179" fontId="5" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="177" fontId="5" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="4" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="5" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
   </cellStyleXfs>
-  <cellXfs count="7">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="0"/>
-    </xf>
-    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment horizontal="center" readingOrder="0"/>
-    </xf>
-    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment readingOrder="0"/>
-    </xf>
-    <xf borderId="0" fillId="0" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment horizontal="left" readingOrder="0"/>
-    </xf>
-    <xf borderId="0" fillId="0" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment readingOrder="0"/>
-    </xf>
-    <xf borderId="0" fillId="0" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment horizontal="left" readingOrder="0"/>
-    </xf>
-    <xf borderId="0" fillId="2" fontId="4" numFmtId="0" xfId="0" applyAlignment="1" applyFill="1" applyFont="1">
-      <alignment readingOrder="0"/>
-    </xf>
+  <cellXfs count="11">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
   </cellXfs>
-  <cellStyles count="1">
-    <cellStyle xfId="0" name="Normal" builtinId="0"/>
+  <cellStyles count="49">
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="60% - Accent6" xfId="1" builtinId="52"/>
+    <cellStyle name="40% - Accent6" xfId="2" builtinId="51"/>
+    <cellStyle name="60% - Accent5" xfId="3" builtinId="48"/>
+    <cellStyle name="Accent6" xfId="4" builtinId="49"/>
+    <cellStyle name="40% - Accent5" xfId="5" builtinId="47"/>
+    <cellStyle name="20% - Accent5" xfId="6" builtinId="46"/>
+    <cellStyle name="60% - Accent4" xfId="7" builtinId="44"/>
+    <cellStyle name="Accent5" xfId="8" builtinId="45"/>
+    <cellStyle name="40% - Accent4" xfId="9" builtinId="43"/>
+    <cellStyle name="Accent4" xfId="10" builtinId="41"/>
+    <cellStyle name="Linked Cell" xfId="11" builtinId="24"/>
+    <cellStyle name="40% - Accent3" xfId="12" builtinId="39"/>
+    <cellStyle name="60% - Accent2" xfId="13" builtinId="36"/>
+    <cellStyle name="Accent3" xfId="14" builtinId="37"/>
+    <cellStyle name="40% - Accent2" xfId="15" builtinId="35"/>
+    <cellStyle name="20% - Accent2" xfId="16" builtinId="34"/>
+    <cellStyle name="Accent2" xfId="17" builtinId="33"/>
+    <cellStyle name="40% - Accent1" xfId="18" builtinId="31"/>
+    <cellStyle name="20% - Accent1" xfId="19" builtinId="30"/>
+    <cellStyle name="Accent1" xfId="20" builtinId="29"/>
+    <cellStyle name="Neutral" xfId="21" builtinId="28"/>
+    <cellStyle name="60% - Accent1" xfId="22" builtinId="32"/>
+    <cellStyle name="Bad" xfId="23" builtinId="27"/>
+    <cellStyle name="20% - Accent4" xfId="24" builtinId="42"/>
+    <cellStyle name="Total" xfId="25" builtinId="25"/>
+    <cellStyle name="Output" xfId="26" builtinId="21"/>
+    <cellStyle name="Currency" xfId="27" builtinId="4"/>
+    <cellStyle name="20% - Accent3" xfId="28" builtinId="38"/>
+    <cellStyle name="Note" xfId="29" builtinId="10"/>
+    <cellStyle name="Input" xfId="30" builtinId="20"/>
+    <cellStyle name="Heading 4" xfId="31" builtinId="19"/>
+    <cellStyle name="Calculation" xfId="32" builtinId="22"/>
+    <cellStyle name="Good" xfId="33" builtinId="26"/>
+    <cellStyle name="Heading 3" xfId="34" builtinId="18"/>
+    <cellStyle name="CExplanatory Text" xfId="35" builtinId="53"/>
+    <cellStyle name="Heading 1" xfId="36" builtinId="16"/>
+    <cellStyle name="Comma [0]" xfId="37" builtinId="6"/>
+    <cellStyle name="20% - Accent6" xfId="38" builtinId="50"/>
+    <cellStyle name="Title" xfId="39" builtinId="15"/>
+    <cellStyle name="Currency [0]" xfId="40" builtinId="7"/>
+    <cellStyle name="Warning Text" xfId="41" builtinId="11"/>
+    <cellStyle name="Followed Hyperlink" xfId="42" builtinId="9"/>
+    <cellStyle name="Heading 2" xfId="43" builtinId="17"/>
+    <cellStyle name="Comma" xfId="44" builtinId="3"/>
+    <cellStyle name="Check Cell" xfId="45" builtinId="23"/>
+    <cellStyle name="60% - Accent3" xfId="46" builtinId="40"/>
+    <cellStyle name="Percent" xfId="47" builtinId="5"/>
+    <cellStyle name="Hyperlink" xfId="48" builtinId="8"/>
   </cellStyles>
-  <dxfs count="0"/>
+  <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
-<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
-<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:cx="http://schemas.microsoft.com/office/drawing/2014/chartex" xmlns:cx1="http://schemas.microsoft.com/office/drawing/2015/9/8/chartex" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:dgm="http://schemas.openxmlformats.org/drawingml/2006/diagram" xmlns:x3Unk="http://schemas.microsoft.com/office/drawing/2010/slicer" xmlns:sle15="http://schemas.microsoft.com/office/drawing/2012/slicer"/>
-</file>
-
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheets">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Sheets">
   <a:themeElements>
     <a:clrScheme name="Sheets">
       <a:dk1>
@@ -790,26 +1521,32 @@
       </a:bgFillStyleLst>
     </a:fmtScheme>
   </a:themeElements>
+  <a:objectDefaults/>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
   </sheetPr>
+  <dimension ref="A1:G139"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView tabSelected="1" topLeftCell="A85" workbookViewId="0">
+      <selection activeCell="J9" sqref="J9"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr customHeight="1" defaultColWidth="12.63" defaultRowHeight="15.75"/>
+  <sheetFormatPr defaultColWidth="12.6285714285714" defaultRowHeight="15.75" customHeight="1" outlineLevelCol="6"/>
   <cols>
-    <col customWidth="1" min="2" max="2" width="25.88"/>
-    <col customWidth="1" min="4" max="4" width="22.25"/>
-    <col customWidth="1" min="5" max="5" width="22.5"/>
-    <col customWidth="1" min="6" max="6" width="24.38"/>
+    <col min="2" max="2" width="31.1428571428571" customWidth="1"/>
+    <col min="3" max="3" width="15.5714285714286" customWidth="1"/>
+    <col min="4" max="4" width="22.247619047619" customWidth="1"/>
+    <col min="5" max="5" width="22.5047619047619" customWidth="1"/>
+    <col min="6" max="6" width="24.3809523809524" customWidth="1"/>
+    <col min="7" max="7" width="19.8571428571429" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1">
+    <row r="1" customHeight="1" spans="1:7">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -832,9 +1569,9 @@
         <v>6</v>
       </c>
     </row>
-    <row r="2">
+    <row r="2" customHeight="1" spans="1:7">
       <c r="A2" s="3">
-        <v>1.0</v>
+        <v>1</v>
       </c>
       <c r="B2" s="3" t="s">
         <v>7</v>
@@ -842,10 +1579,14 @@
       <c r="C2" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="3">
+      <c r="D2" s="4"/>
+      <c r="E2" s="4"/>
+      <c r="F2" s="4"/>
+      <c r="G2" s="4"/>
+    </row>
+    <row r="3" customHeight="1" spans="1:7">
       <c r="A3" s="3">
-        <v>2.0</v>
+        <v>2</v>
       </c>
       <c r="B3" s="3" t="s">
         <v>9</v>
@@ -853,10 +1594,14 @@
       <c r="C3" s="3" t="s">
         <v>10</v>
       </c>
-    </row>
-    <row r="4">
+      <c r="D3" s="4"/>
+      <c r="E3" s="4"/>
+      <c r="F3" s="4"/>
+      <c r="G3" s="4"/>
+    </row>
+    <row r="4" customHeight="1" spans="1:7">
       <c r="A4" s="3">
-        <v>3.0</v>
+        <v>3</v>
       </c>
       <c r="B4" s="3" t="s">
         <v>11</v>
@@ -864,10 +1609,14 @@
       <c r="C4" s="3" t="s">
         <v>12</v>
       </c>
-    </row>
-    <row r="5">
+      <c r="D4" s="4"/>
+      <c r="E4" s="4"/>
+      <c r="F4" s="4"/>
+      <c r="G4" s="4"/>
+    </row>
+    <row r="5" customHeight="1" spans="1:7">
       <c r="A5" s="3">
-        <v>4.0</v>
+        <v>4</v>
       </c>
       <c r="B5" s="3" t="s">
         <v>13</v>
@@ -875,10 +1624,14 @@
       <c r="C5" s="3" t="s">
         <v>14</v>
       </c>
-    </row>
-    <row r="6">
+      <c r="D5" s="4"/>
+      <c r="E5" s="4"/>
+      <c r="F5" s="4"/>
+      <c r="G5" s="4"/>
+    </row>
+    <row r="6" customHeight="1" spans="1:7">
       <c r="A6" s="3">
-        <v>5.0</v>
+        <v>5</v>
       </c>
       <c r="B6" s="3" t="s">
         <v>15</v>
@@ -886,10 +1639,14 @@
       <c r="C6" s="3" t="s">
         <v>12</v>
       </c>
-    </row>
-    <row r="7">
+      <c r="D6" s="4"/>
+      <c r="E6" s="4"/>
+      <c r="F6" s="4"/>
+      <c r="G6" s="4"/>
+    </row>
+    <row r="7" customHeight="1" spans="1:7">
       <c r="A7" s="3">
-        <v>6.0</v>
+        <v>6</v>
       </c>
       <c r="B7" s="3" t="s">
         <v>16</v>
@@ -897,10 +1654,14 @@
       <c r="C7" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="8">
+      <c r="D7" s="4"/>
+      <c r="E7" s="4"/>
+      <c r="F7" s="4"/>
+      <c r="G7" s="4"/>
+    </row>
+    <row r="8" customHeight="1" spans="1:7">
       <c r="A8" s="3">
-        <v>7.0</v>
+        <v>7</v>
       </c>
       <c r="B8" s="3" t="s">
         <v>17</v>
@@ -908,10 +1669,14 @@
       <c r="C8" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="9">
+      <c r="D8" s="4"/>
+      <c r="E8" s="4"/>
+      <c r="F8" s="4"/>
+      <c r="G8" s="4"/>
+    </row>
+    <row r="9" customHeight="1" spans="1:7">
       <c r="A9" s="3">
-        <v>8.0</v>
+        <v>8</v>
       </c>
       <c r="B9" s="3" t="s">
         <v>18</v>
@@ -919,10 +1684,14 @@
       <c r="C9" s="3" t="s">
         <v>12</v>
       </c>
-    </row>
-    <row r="10">
+      <c r="D9" s="4"/>
+      <c r="E9" s="4"/>
+      <c r="F9" s="4"/>
+      <c r="G9" s="4"/>
+    </row>
+    <row r="10" customHeight="1" spans="1:7">
       <c r="A10" s="3">
-        <v>9.0</v>
+        <v>9</v>
       </c>
       <c r="B10" s="3" t="s">
         <v>19</v>
@@ -930,10 +1699,14 @@
       <c r="C10" s="3" t="s">
         <v>20</v>
       </c>
-    </row>
-    <row r="11">
+      <c r="D10" s="4"/>
+      <c r="E10" s="4"/>
+      <c r="F10" s="4"/>
+      <c r="G10" s="4"/>
+    </row>
+    <row r="11" customHeight="1" spans="1:7">
       <c r="A11" s="3">
-        <v>10.0</v>
+        <v>10</v>
       </c>
       <c r="B11" s="3" t="s">
         <v>21</v>
@@ -941,10 +1714,14 @@
       <c r="C11" s="3" t="s">
         <v>14</v>
       </c>
-    </row>
-    <row r="12">
+      <c r="D11" s="4"/>
+      <c r="E11" s="4"/>
+      <c r="F11" s="4"/>
+      <c r="G11" s="4"/>
+    </row>
+    <row r="12" customHeight="1" spans="1:7">
       <c r="A12" s="3">
-        <v>11.0</v>
+        <v>11</v>
       </c>
       <c r="B12" s="3" t="s">
         <v>22</v>
@@ -952,10 +1729,14 @@
       <c r="C12" s="3" t="s">
         <v>23</v>
       </c>
-    </row>
-    <row r="13">
+      <c r="D12" s="4"/>
+      <c r="E12" s="4"/>
+      <c r="F12" s="4"/>
+      <c r="G12" s="4"/>
+    </row>
+    <row r="13" customHeight="1" spans="1:7">
       <c r="A13" s="3">
-        <v>12.0</v>
+        <v>12</v>
       </c>
       <c r="B13" s="3" t="s">
         <v>24</v>
@@ -963,10 +1744,14 @@
       <c r="C13" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="14">
+      <c r="D13" s="4"/>
+      <c r="E13" s="4"/>
+      <c r="F13" s="4"/>
+      <c r="G13" s="4"/>
+    </row>
+    <row r="14" customHeight="1" spans="1:7">
       <c r="A14" s="3">
-        <v>13.0</v>
+        <v>13</v>
       </c>
       <c r="B14" s="3" t="s">
         <v>25</v>
@@ -974,10 +1759,14 @@
       <c r="C14" s="3" t="s">
         <v>26</v>
       </c>
-    </row>
-    <row r="15">
+      <c r="D14" s="4"/>
+      <c r="E14" s="4"/>
+      <c r="F14" s="4"/>
+      <c r="G14" s="4"/>
+    </row>
+    <row r="15" customHeight="1" spans="1:7">
       <c r="A15" s="3">
-        <v>14.0</v>
+        <v>14</v>
       </c>
       <c r="B15" s="3" t="s">
         <v>27</v>
@@ -985,10 +1774,14 @@
       <c r="C15" s="3" t="s">
         <v>12</v>
       </c>
-    </row>
-    <row r="16">
+      <c r="D15" s="4"/>
+      <c r="E15" s="4"/>
+      <c r="F15" s="4"/>
+      <c r="G15" s="4"/>
+    </row>
+    <row r="16" customHeight="1" spans="1:7">
       <c r="A16" s="3">
-        <v>15.0</v>
+        <v>15</v>
       </c>
       <c r="B16" s="3" t="s">
         <v>28</v>
@@ -996,10 +1789,14 @@
       <c r="C16" s="3" t="s">
         <v>12</v>
       </c>
-    </row>
-    <row r="17">
+      <c r="D16" s="4"/>
+      <c r="E16" s="4"/>
+      <c r="F16" s="4"/>
+      <c r="G16" s="4"/>
+    </row>
+    <row r="17" customHeight="1" spans="1:7">
       <c r="A17" s="3">
-        <v>16.0</v>
+        <v>16</v>
       </c>
       <c r="B17" s="3" t="s">
         <v>29</v>
@@ -1007,10 +1804,14 @@
       <c r="C17" s="3" t="s">
         <v>12</v>
       </c>
-    </row>
-    <row r="18">
+      <c r="D17" s="4"/>
+      <c r="E17" s="4"/>
+      <c r="F17" s="4"/>
+      <c r="G17" s="4"/>
+    </row>
+    <row r="18" customHeight="1" spans="1:7">
       <c r="A18" s="3">
-        <v>17.0</v>
+        <v>17</v>
       </c>
       <c r="B18" s="3" t="s">
         <v>30</v>
@@ -1018,10 +1819,14 @@
       <c r="C18" s="3" t="s">
         <v>12</v>
       </c>
-    </row>
-    <row r="19">
+      <c r="D18" s="4"/>
+      <c r="E18" s="4"/>
+      <c r="F18" s="4"/>
+      <c r="G18" s="4"/>
+    </row>
+    <row r="19" customHeight="1" spans="1:7">
       <c r="A19" s="3">
-        <v>18.0</v>
+        <v>18</v>
       </c>
       <c r="B19" s="3" t="s">
         <v>31</v>
@@ -1029,10 +1834,14 @@
       <c r="C19" s="3" t="s">
         <v>12</v>
       </c>
-    </row>
-    <row r="20">
+      <c r="D19" s="4"/>
+      <c r="E19" s="4"/>
+      <c r="F19" s="4"/>
+      <c r="G19" s="4"/>
+    </row>
+    <row r="20" customHeight="1" spans="1:7">
       <c r="A20" s="3">
-        <v>19.0</v>
+        <v>19</v>
       </c>
       <c r="B20" s="3" t="s">
         <v>32</v>
@@ -1040,13 +1849,16 @@
       <c r="C20" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="F20" s="4" t="s">
+      <c r="D20" s="4"/>
+      <c r="E20" s="4"/>
+      <c r="F20" s="6" t="s">
         <v>33</v>
       </c>
-    </row>
-    <row r="21">
+      <c r="G20" s="4"/>
+    </row>
+    <row r="21" customHeight="1" spans="1:7">
       <c r="A21" s="3">
-        <v>20.0</v>
+        <v>20</v>
       </c>
       <c r="B21" s="3" t="s">
         <v>34</v>
@@ -1054,10 +1866,14 @@
       <c r="C21" s="3" t="s">
         <v>35</v>
       </c>
-    </row>
-    <row r="22">
+      <c r="D21" s="4"/>
+      <c r="E21" s="4"/>
+      <c r="F21" s="4"/>
+      <c r="G21" s="4"/>
+    </row>
+    <row r="22" customHeight="1" spans="1:7">
       <c r="A22" s="3">
-        <v>21.0</v>
+        <v>21</v>
       </c>
       <c r="B22" s="3" t="s">
         <v>36</v>
@@ -1065,10 +1881,14 @@
       <c r="C22" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="23">
+      <c r="D22" s="4"/>
+      <c r="E22" s="4"/>
+      <c r="F22" s="4"/>
+      <c r="G22" s="4"/>
+    </row>
+    <row r="23" customHeight="1" spans="1:7">
       <c r="A23" s="3">
-        <v>22.0</v>
+        <v>22</v>
       </c>
       <c r="B23" s="3" t="s">
         <v>37</v>
@@ -1076,10 +1896,14 @@
       <c r="C23" s="3" t="s">
         <v>12</v>
       </c>
-    </row>
-    <row r="24">
+      <c r="D23" s="4"/>
+      <c r="E23" s="4"/>
+      <c r="F23" s="4"/>
+      <c r="G23" s="4"/>
+    </row>
+    <row r="24" customHeight="1" spans="1:7">
       <c r="A24" s="3">
-        <v>23.0</v>
+        <v>23</v>
       </c>
       <c r="B24" s="3" t="s">
         <v>38</v>
@@ -1087,10 +1911,14 @@
       <c r="C24" s="3" t="s">
         <v>39</v>
       </c>
-    </row>
-    <row r="25">
+      <c r="D24" s="4"/>
+      <c r="E24" s="4"/>
+      <c r="F24" s="4"/>
+      <c r="G24" s="4"/>
+    </row>
+    <row r="25" customHeight="1" spans="1:7">
       <c r="A25" s="3">
-        <v>24.0</v>
+        <v>24</v>
       </c>
       <c r="B25" s="5" t="s">
         <v>40</v>
@@ -1098,10 +1926,14 @@
       <c r="C25" s="3" t="s">
         <v>35</v>
       </c>
-    </row>
-    <row r="26">
+      <c r="D25" s="4"/>
+      <c r="E25" s="4"/>
+      <c r="F25" s="4"/>
+      <c r="G25" s="4"/>
+    </row>
+    <row r="26" customHeight="1" spans="1:7">
       <c r="A26" s="3">
-        <v>25.0</v>
+        <v>25</v>
       </c>
       <c r="B26" s="3" t="s">
         <v>41</v>
@@ -1109,10 +1941,14 @@
       <c r="C26" s="3" t="s">
         <v>35</v>
       </c>
-    </row>
-    <row r="27">
+      <c r="D26" s="4"/>
+      <c r="E26" s="4"/>
+      <c r="F26" s="4"/>
+      <c r="G26" s="4"/>
+    </row>
+    <row r="27" customHeight="1" spans="1:7">
       <c r="A27" s="3">
-        <v>26.0</v>
+        <v>26</v>
       </c>
       <c r="B27" s="3" t="s">
         <v>42</v>
@@ -1120,10 +1956,14 @@
       <c r="C27" s="3" t="s">
         <v>43</v>
       </c>
-    </row>
-    <row r="28">
+      <c r="D27" s="4"/>
+      <c r="E27" s="4"/>
+      <c r="F27" s="4"/>
+      <c r="G27" s="4"/>
+    </row>
+    <row r="28" customHeight="1" spans="1:7">
       <c r="A28" s="3">
-        <v>27.0</v>
+        <v>27</v>
       </c>
       <c r="B28" s="3" t="s">
         <v>44</v>
@@ -1131,10 +1971,14 @@
       <c r="C28" s="3" t="s">
         <v>35</v>
       </c>
-    </row>
-    <row r="29">
+      <c r="D28" s="4"/>
+      <c r="E28" s="4"/>
+      <c r="F28" s="4"/>
+      <c r="G28" s="4"/>
+    </row>
+    <row r="29" customHeight="1" spans="1:7">
       <c r="A29" s="3">
-        <v>28.0</v>
+        <v>28</v>
       </c>
       <c r="B29" s="3" t="s">
         <v>45</v>
@@ -1142,10 +1986,14 @@
       <c r="C29" s="3" t="s">
         <v>39</v>
       </c>
-    </row>
-    <row r="30">
+      <c r="D29" s="4"/>
+      <c r="E29" s="4"/>
+      <c r="F29" s="4"/>
+      <c r="G29" s="4"/>
+    </row>
+    <row r="30" customHeight="1" spans="1:7">
       <c r="A30" s="3">
-        <v>29.0</v>
+        <v>29</v>
       </c>
       <c r="B30" s="3" t="s">
         <v>46</v>
@@ -1153,10 +2001,14 @@
       <c r="C30" s="3" t="s">
         <v>47</v>
       </c>
-    </row>
-    <row r="31">
+      <c r="D30" s="4"/>
+      <c r="E30" s="4"/>
+      <c r="F30" s="4"/>
+      <c r="G30" s="4"/>
+    </row>
+    <row r="31" customHeight="1" spans="1:7">
       <c r="A31" s="3">
-        <v>30.0</v>
+        <v>30</v>
       </c>
       <c r="B31" s="3" t="s">
         <v>48</v>
@@ -1164,10 +2016,14 @@
       <c r="C31" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="32">
+      <c r="D31" s="4"/>
+      <c r="E31" s="4"/>
+      <c r="F31" s="4"/>
+      <c r="G31" s="4"/>
+    </row>
+    <row r="32" customHeight="1" spans="1:7">
       <c r="A32" s="3">
-        <v>31.0</v>
+        <v>31</v>
       </c>
       <c r="B32" s="3" t="s">
         <v>49</v>
@@ -1175,10 +2031,14 @@
       <c r="C32" s="3" t="s">
         <v>12</v>
       </c>
-    </row>
-    <row r="33">
+      <c r="D32" s="4"/>
+      <c r="E32" s="4"/>
+      <c r="F32" s="4"/>
+      <c r="G32" s="4"/>
+    </row>
+    <row r="33" customHeight="1" spans="1:7">
       <c r="A33" s="3">
-        <v>32.0</v>
+        <v>32</v>
       </c>
       <c r="B33" s="3" t="s">
         <v>50</v>
@@ -1186,16 +2046,18 @@
       <c r="C33" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="D33" s="4" t="s">
+      <c r="D33" s="6" t="s">
         <v>51</v>
       </c>
-      <c r="G33" s="4" t="s">
+      <c r="E33" s="4"/>
+      <c r="F33" s="4"/>
+      <c r="G33" s="6" t="s">
         <v>33</v>
       </c>
     </row>
-    <row r="34">
+    <row r="34" customHeight="1" spans="1:7">
       <c r="A34" s="3">
-        <v>33.0</v>
+        <v>33</v>
       </c>
       <c r="B34" s="3" t="s">
         <v>52</v>
@@ -1203,10 +2065,14 @@
       <c r="C34" s="3" t="s">
         <v>12</v>
       </c>
-    </row>
-    <row r="35">
+      <c r="D34" s="4"/>
+      <c r="E34" s="4"/>
+      <c r="F34" s="4"/>
+      <c r="G34" s="4"/>
+    </row>
+    <row r="35" customHeight="1" spans="1:7">
       <c r="A35" s="3">
-        <v>34.0</v>
+        <v>34</v>
       </c>
       <c r="B35" s="3" t="s">
         <v>53</v>
@@ -1214,13 +2080,16 @@
       <c r="C35" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="E35" s="4" t="s">
+      <c r="D35" s="4"/>
+      <c r="E35" s="6" t="s">
         <v>33</v>
       </c>
-    </row>
-    <row r="36">
+      <c r="F35" s="4"/>
+      <c r="G35" s="4"/>
+    </row>
+    <row r="36" customHeight="1" spans="1:7">
       <c r="A36" s="3">
-        <v>35.0</v>
+        <v>35</v>
       </c>
       <c r="B36" s="5" t="s">
         <v>54</v>
@@ -1228,10 +2097,14 @@
       <c r="C36" s="3" t="s">
         <v>12</v>
       </c>
-    </row>
-    <row r="37">
+      <c r="D36" s="4"/>
+      <c r="E36" s="4"/>
+      <c r="F36" s="4"/>
+      <c r="G36" s="4"/>
+    </row>
+    <row r="37" customHeight="1" spans="1:7">
       <c r="A37" s="3">
-        <v>36.0</v>
+        <v>36</v>
       </c>
       <c r="B37" s="3" t="s">
         <v>55</v>
@@ -1239,10 +2112,14 @@
       <c r="C37" s="3" t="s">
         <v>14</v>
       </c>
-    </row>
-    <row r="38">
+      <c r="D37" s="4"/>
+      <c r="E37" s="4"/>
+      <c r="F37" s="4"/>
+      <c r="G37" s="4"/>
+    </row>
+    <row r="38" customHeight="1" spans="1:7">
       <c r="A38" s="3">
-        <v>37.0</v>
+        <v>37</v>
       </c>
       <c r="B38" s="3" t="s">
         <v>56</v>
@@ -1250,10 +2127,14 @@
       <c r="C38" s="3" t="s">
         <v>35</v>
       </c>
-    </row>
-    <row r="39">
+      <c r="D38" s="4"/>
+      <c r="E38" s="4"/>
+      <c r="F38" s="4"/>
+      <c r="G38" s="4"/>
+    </row>
+    <row r="39" customHeight="1" spans="1:7">
       <c r="A39" s="3">
-        <v>38.0</v>
+        <v>38</v>
       </c>
       <c r="B39" s="3" t="s">
         <v>57</v>
@@ -1261,10 +2142,14 @@
       <c r="C39" s="3" t="s">
         <v>23</v>
       </c>
-    </row>
-    <row r="40">
+      <c r="D39" s="4"/>
+      <c r="E39" s="4"/>
+      <c r="F39" s="4"/>
+      <c r="G39" s="4"/>
+    </row>
+    <row r="40" customHeight="1" spans="1:7">
       <c r="A40" s="3">
-        <v>39.0</v>
+        <v>39</v>
       </c>
       <c r="B40" s="3" t="s">
         <v>58</v>
@@ -1272,10 +2157,14 @@
       <c r="C40" s="3" t="s">
         <v>59</v>
       </c>
-    </row>
-    <row r="41">
+      <c r="D40" s="4"/>
+      <c r="E40" s="4"/>
+      <c r="F40" s="4"/>
+      <c r="G40" s="4"/>
+    </row>
+    <row r="41" customHeight="1" spans="1:7">
       <c r="A41" s="3">
-        <v>40.0</v>
+        <v>40</v>
       </c>
       <c r="B41" s="3" t="s">
         <v>60</v>
@@ -1283,10 +2172,14 @@
       <c r="C41" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="42">
+      <c r="D41" s="4"/>
+      <c r="E41" s="4"/>
+      <c r="F41" s="4"/>
+      <c r="G41" s="4"/>
+    </row>
+    <row r="42" customHeight="1" spans="1:7">
       <c r="A42" s="3">
-        <v>41.0</v>
+        <v>41</v>
       </c>
       <c r="B42" s="5" t="s">
         <v>61</v>
@@ -1294,10 +2187,14 @@
       <c r="C42" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="43">
+      <c r="D42" s="4"/>
+      <c r="E42" s="4"/>
+      <c r="F42" s="4"/>
+      <c r="G42" s="4"/>
+    </row>
+    <row r="43" customHeight="1" spans="1:7">
       <c r="A43" s="3">
-        <v>42.0</v>
+        <v>42</v>
       </c>
       <c r="B43" s="3" t="s">
         <v>62</v>
@@ -1305,10 +2202,14 @@
       <c r="C43" s="3" t="s">
         <v>12</v>
       </c>
-    </row>
-    <row r="44">
+      <c r="D43" s="4"/>
+      <c r="E43" s="4"/>
+      <c r="F43" s="4"/>
+      <c r="G43" s="4"/>
+    </row>
+    <row r="44" customHeight="1" spans="1:7">
       <c r="A44" s="3">
-        <v>43.0</v>
+        <v>43</v>
       </c>
       <c r="B44" s="3" t="s">
         <v>63</v>
@@ -1316,10 +2217,14 @@
       <c r="C44" s="3" t="s">
         <v>12</v>
       </c>
-    </row>
-    <row r="45">
+      <c r="D44" s="4"/>
+      <c r="E44" s="4"/>
+      <c r="F44" s="4"/>
+      <c r="G44" s="4"/>
+    </row>
+    <row r="45" customHeight="1" spans="1:7">
       <c r="A45" s="3">
-        <v>44.0</v>
+        <v>44</v>
       </c>
       <c r="B45" s="3" t="s">
         <v>64</v>
@@ -1327,10 +2232,14 @@
       <c r="C45" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="46">
+      <c r="D45" s="4"/>
+      <c r="E45" s="4"/>
+      <c r="F45" s="4"/>
+      <c r="G45" s="4"/>
+    </row>
+    <row r="46" customHeight="1" spans="1:7">
       <c r="A46" s="3">
-        <v>45.0</v>
+        <v>45</v>
       </c>
       <c r="B46" s="3" t="s">
         <v>65</v>
@@ -1338,10 +2247,14 @@
       <c r="C46" s="3" t="s">
         <v>35</v>
       </c>
-    </row>
-    <row r="47">
+      <c r="D46" s="4"/>
+      <c r="E46" s="4"/>
+      <c r="F46" s="4"/>
+      <c r="G46" s="4"/>
+    </row>
+    <row r="47" customHeight="1" spans="1:7">
       <c r="A47" s="3">
-        <v>46.0</v>
+        <v>46</v>
       </c>
       <c r="B47" s="3" t="s">
         <v>66</v>
@@ -1349,10 +2262,14 @@
       <c r="C47" s="3" t="s">
         <v>67</v>
       </c>
-    </row>
-    <row r="48">
+      <c r="D47" s="4"/>
+      <c r="E47" s="4"/>
+      <c r="F47" s="4"/>
+      <c r="G47" s="4"/>
+    </row>
+    <row r="48" customHeight="1" spans="1:7">
       <c r="A48" s="3">
-        <v>47.0</v>
+        <v>47</v>
       </c>
       <c r="B48" s="3" t="s">
         <v>68</v>
@@ -1360,10 +2277,14 @@
       <c r="C48" s="3" t="s">
         <v>69</v>
       </c>
-    </row>
-    <row r="49">
+      <c r="D48" s="4"/>
+      <c r="E48" s="4"/>
+      <c r="F48" s="4"/>
+      <c r="G48" s="4"/>
+    </row>
+    <row r="49" customHeight="1" spans="1:7">
       <c r="A49" s="3">
-        <v>48.0</v>
+        <v>48</v>
       </c>
       <c r="B49" s="3" t="s">
         <v>70</v>
@@ -1371,13 +2292,16 @@
       <c r="C49" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="E49" s="4" t="s">
+      <c r="D49" s="4"/>
+      <c r="E49" s="6" t="s">
         <v>33</v>
       </c>
-    </row>
-    <row r="50">
+      <c r="F49" s="4"/>
+      <c r="G49" s="4"/>
+    </row>
+    <row r="50" customHeight="1" spans="1:7">
       <c r="A50" s="3">
-        <v>49.0</v>
+        <v>49</v>
       </c>
       <c r="B50" s="3" t="s">
         <v>71</v>
@@ -1385,10 +2309,14 @@
       <c r="C50" s="3" t="s">
         <v>14</v>
       </c>
-    </row>
-    <row r="51">
+      <c r="D50" s="4"/>
+      <c r="E50" s="4"/>
+      <c r="F50" s="4"/>
+      <c r="G50" s="4"/>
+    </row>
+    <row r="51" customHeight="1" spans="1:7">
       <c r="A51" s="3">
-        <v>50.0</v>
+        <v>50</v>
       </c>
       <c r="B51" s="3" t="s">
         <v>72</v>
@@ -1396,10 +2324,14 @@
       <c r="C51" s="3" t="s">
         <v>14</v>
       </c>
-    </row>
-    <row r="52">
+      <c r="D51" s="4"/>
+      <c r="E51" s="4"/>
+      <c r="F51" s="4"/>
+      <c r="G51" s="4"/>
+    </row>
+    <row r="52" customHeight="1" spans="1:7">
       <c r="A52" s="3">
-        <v>51.0</v>
+        <v>51</v>
       </c>
       <c r="B52" s="3" t="s">
         <v>73</v>
@@ -1407,10 +2339,14 @@
       <c r="C52" s="3" t="s">
         <v>12</v>
       </c>
-    </row>
-    <row r="53">
+      <c r="D52" s="4"/>
+      <c r="E52" s="4"/>
+      <c r="F52" s="4"/>
+      <c r="G52" s="4"/>
+    </row>
+    <row r="53" customHeight="1" spans="1:7">
       <c r="A53" s="3">
-        <v>52.0</v>
+        <v>52</v>
       </c>
       <c r="B53" s="3" t="s">
         <v>74</v>
@@ -1418,13 +2354,16 @@
       <c r="C53" s="3" t="s">
         <v>39</v>
       </c>
-      <c r="D53" s="4" t="s">
+      <c r="D53" s="6" t="s">
         <v>33</v>
       </c>
-    </row>
-    <row r="54">
+      <c r="E53" s="4"/>
+      <c r="F53" s="4"/>
+      <c r="G53" s="4"/>
+    </row>
+    <row r="54" customHeight="1" spans="1:7">
       <c r="A54" s="3">
-        <v>53.0</v>
+        <v>53</v>
       </c>
       <c r="B54" s="3" t="s">
         <v>75</v>
@@ -1432,10 +2371,14 @@
       <c r="C54" s="3" t="s">
         <v>14</v>
       </c>
-    </row>
-    <row r="55">
+      <c r="D54" s="4"/>
+      <c r="E54" s="4"/>
+      <c r="F54" s="4"/>
+      <c r="G54" s="4"/>
+    </row>
+    <row r="55" customHeight="1" spans="1:7">
       <c r="A55" s="3">
-        <v>54.0</v>
+        <v>54</v>
       </c>
       <c r="B55" s="3" t="s">
         <v>76</v>
@@ -1443,10 +2386,14 @@
       <c r="C55" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="56">
+      <c r="D55" s="4"/>
+      <c r="E55" s="4"/>
+      <c r="F55" s="4"/>
+      <c r="G55" s="4"/>
+    </row>
+    <row r="56" customHeight="1" spans="1:7">
       <c r="A56" s="3">
-        <v>55.0</v>
+        <v>55</v>
       </c>
       <c r="B56" s="3" t="s">
         <v>77</v>
@@ -1454,10 +2401,14 @@
       <c r="C56" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="57">
+      <c r="D56" s="4"/>
+      <c r="E56" s="4"/>
+      <c r="F56" s="4"/>
+      <c r="G56" s="4"/>
+    </row>
+    <row r="57" customHeight="1" spans="1:7">
       <c r="A57" s="3">
-        <v>56.0</v>
+        <v>56</v>
       </c>
       <c r="B57" s="3" t="s">
         <v>78</v>
@@ -1465,10 +2416,14 @@
       <c r="C57" s="3" t="s">
         <v>39</v>
       </c>
-    </row>
-    <row r="58">
+      <c r="D57" s="4"/>
+      <c r="E57" s="4"/>
+      <c r="F57" s="4"/>
+      <c r="G57" s="4"/>
+    </row>
+    <row r="58" customHeight="1" spans="1:7">
       <c r="A58" s="3">
-        <v>57.0</v>
+        <v>57</v>
       </c>
       <c r="B58" s="3" t="s">
         <v>79</v>
@@ -1476,10 +2431,14 @@
       <c r="C58" s="3" t="s">
         <v>12</v>
       </c>
-    </row>
-    <row r="59">
+      <c r="D58" s="4"/>
+      <c r="E58" s="4"/>
+      <c r="F58" s="4"/>
+      <c r="G58" s="4"/>
+    </row>
+    <row r="59" customHeight="1" spans="1:7">
       <c r="A59" s="3">
-        <v>58.0</v>
+        <v>58</v>
       </c>
       <c r="B59" s="3" t="s">
         <v>80</v>
@@ -1487,10 +2446,14 @@
       <c r="C59" s="3" t="s">
         <v>12</v>
       </c>
-    </row>
-    <row r="60">
+      <c r="D59" s="4"/>
+      <c r="E59" s="4"/>
+      <c r="F59" s="4"/>
+      <c r="G59" s="4"/>
+    </row>
+    <row r="60" customHeight="1" spans="1:7">
       <c r="A60" s="3">
-        <v>59.0</v>
+        <v>59</v>
       </c>
       <c r="B60" s="3" t="s">
         <v>81</v>
@@ -1498,10 +2461,14 @@
       <c r="C60" s="3" t="s">
         <v>12</v>
       </c>
-    </row>
-    <row r="61">
+      <c r="D60" s="4"/>
+      <c r="E60" s="4"/>
+      <c r="F60" s="4"/>
+      <c r="G60" s="4"/>
+    </row>
+    <row r="61" customHeight="1" spans="1:7">
       <c r="A61" s="3">
-        <v>60.0</v>
+        <v>60</v>
       </c>
       <c r="B61" s="3" t="s">
         <v>82</v>
@@ -1509,13 +2476,16 @@
       <c r="C61" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="F61" s="4" t="s">
+      <c r="D61" s="4"/>
+      <c r="E61" s="4"/>
+      <c r="F61" s="6" t="s">
         <v>33</v>
       </c>
-    </row>
-    <row r="62">
+      <c r="G61" s="4"/>
+    </row>
+    <row r="62" customHeight="1" spans="1:7">
       <c r="A62" s="3">
-        <v>61.0</v>
+        <v>61</v>
       </c>
       <c r="B62" s="3" t="s">
         <v>83</v>
@@ -1523,10 +2493,14 @@
       <c r="C62" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="63">
+      <c r="D62" s="4"/>
+      <c r="E62" s="4"/>
+      <c r="F62" s="4"/>
+      <c r="G62" s="4"/>
+    </row>
+    <row r="63" customHeight="1" spans="1:7">
       <c r="A63" s="3">
-        <v>62.0</v>
+        <v>62</v>
       </c>
       <c r="B63" s="3" t="s">
         <v>84</v>
@@ -1534,10 +2508,14 @@
       <c r="C63" s="3" t="s">
         <v>12</v>
       </c>
-    </row>
-    <row r="64">
+      <c r="D63" s="4"/>
+      <c r="E63" s="4"/>
+      <c r="F63" s="4"/>
+      <c r="G63" s="4"/>
+    </row>
+    <row r="64" customHeight="1" spans="1:7">
       <c r="A64" s="3">
-        <v>63.0</v>
+        <v>63</v>
       </c>
       <c r="B64" s="3" t="s">
         <v>85</v>
@@ -1545,10 +2523,14 @@
       <c r="C64" s="3" t="s">
         <v>86</v>
       </c>
-    </row>
-    <row r="65">
+      <c r="D64" s="4"/>
+      <c r="E64" s="4"/>
+      <c r="F64" s="4"/>
+      <c r="G64" s="4"/>
+    </row>
+    <row r="65" customHeight="1" spans="1:7">
       <c r="A65" s="3">
-        <v>64.0</v>
+        <v>64</v>
       </c>
       <c r="B65" s="3" t="s">
         <v>87</v>
@@ -1556,10 +2538,14 @@
       <c r="C65" s="3" t="s">
         <v>12</v>
       </c>
-    </row>
-    <row r="66">
+      <c r="D65" s="4"/>
+      <c r="E65" s="4"/>
+      <c r="F65" s="4"/>
+      <c r="G65" s="4"/>
+    </row>
+    <row r="66" customHeight="1" spans="1:7">
       <c r="A66" s="3">
-        <v>65.0</v>
+        <v>65</v>
       </c>
       <c r="B66" s="3" t="s">
         <v>88</v>
@@ -1567,10 +2553,14 @@
       <c r="C66" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="67">
+      <c r="D66" s="4"/>
+      <c r="E66" s="4"/>
+      <c r="F66" s="4"/>
+      <c r="G66" s="4"/>
+    </row>
+    <row r="67" customHeight="1" spans="1:7">
       <c r="A67" s="3">
-        <v>66.0</v>
+        <v>66</v>
       </c>
       <c r="B67" s="3" t="s">
         <v>89</v>
@@ -1578,10 +2568,14 @@
       <c r="C67" s="3" t="s">
         <v>12</v>
       </c>
-    </row>
-    <row r="68">
+      <c r="D67" s="4"/>
+      <c r="E67" s="4"/>
+      <c r="F67" s="4"/>
+      <c r="G67" s="4"/>
+    </row>
+    <row r="68" customHeight="1" spans="1:7">
       <c r="A68" s="3">
-        <v>67.0</v>
+        <v>67</v>
       </c>
       <c r="B68" s="3" t="s">
         <v>90</v>
@@ -1589,10 +2583,14 @@
       <c r="C68" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="69">
+      <c r="D68" s="4"/>
+      <c r="E68" s="4"/>
+      <c r="F68" s="4"/>
+      <c r="G68" s="4"/>
+    </row>
+    <row r="69" customHeight="1" spans="1:7">
       <c r="A69" s="3">
-        <v>68.0</v>
+        <v>68</v>
       </c>
       <c r="B69" s="3" t="s">
         <v>91</v>
@@ -1600,13 +2598,16 @@
       <c r="C69" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="D69" s="4" t="s">
+      <c r="D69" s="6" t="s">
         <v>33</v>
       </c>
-    </row>
-    <row r="70">
+      <c r="E69" s="4"/>
+      <c r="F69" s="4"/>
+      <c r="G69" s="4"/>
+    </row>
+    <row r="70" customHeight="1" spans="1:7">
       <c r="A70" s="3">
-        <v>69.0</v>
+        <v>69</v>
       </c>
       <c r="B70" s="3" t="s">
         <v>92</v>
@@ -1614,10 +2615,14 @@
       <c r="C70" s="3" t="s">
         <v>14</v>
       </c>
-    </row>
-    <row r="71">
+      <c r="D70" s="4"/>
+      <c r="E70" s="4"/>
+      <c r="F70" s="4"/>
+      <c r="G70" s="4"/>
+    </row>
+    <row r="71" customHeight="1" spans="1:7">
       <c r="A71" s="3">
-        <v>70.0</v>
+        <v>70</v>
       </c>
       <c r="B71" s="3" t="s">
         <v>93</v>
@@ -1625,10 +2630,14 @@
       <c r="C71" s="3" t="s">
         <v>14</v>
       </c>
-    </row>
-    <row r="72">
+      <c r="D71" s="4"/>
+      <c r="E71" s="4"/>
+      <c r="F71" s="4"/>
+      <c r="G71" s="4"/>
+    </row>
+    <row r="72" customHeight="1" spans="1:7">
       <c r="A72" s="3">
-        <v>71.0</v>
+        <v>71</v>
       </c>
       <c r="B72" s="3" t="s">
         <v>94</v>
@@ -1636,10 +2645,14 @@
       <c r="C72" s="3" t="s">
         <v>14</v>
       </c>
-    </row>
-    <row r="73">
+      <c r="D72" s="4"/>
+      <c r="E72" s="4"/>
+      <c r="F72" s="4"/>
+      <c r="G72" s="4"/>
+    </row>
+    <row r="73" customHeight="1" spans="1:7">
       <c r="A73" s="3">
-        <v>72.0</v>
+        <v>72</v>
       </c>
       <c r="B73" s="3" t="s">
         <v>95</v>
@@ -1647,10 +2660,14 @@
       <c r="C73" s="3" t="s">
         <v>14</v>
       </c>
-    </row>
-    <row r="74">
+      <c r="D73" s="4"/>
+      <c r="E73" s="4"/>
+      <c r="F73" s="4"/>
+      <c r="G73" s="4"/>
+    </row>
+    <row r="74" customHeight="1" spans="1:7">
       <c r="A74" s="3">
-        <v>73.0</v>
+        <v>73</v>
       </c>
       <c r="B74" s="3" t="s">
         <v>96</v>
@@ -1658,10 +2675,14 @@
       <c r="C74" s="3" t="s">
         <v>14</v>
       </c>
-    </row>
-    <row r="75">
+      <c r="D74" s="4"/>
+      <c r="E74" s="4"/>
+      <c r="F74" s="4"/>
+      <c r="G74" s="4"/>
+    </row>
+    <row r="75" customHeight="1" spans="1:7">
       <c r="A75" s="3">
-        <v>74.0</v>
+        <v>74</v>
       </c>
       <c r="B75" s="3" t="s">
         <v>97</v>
@@ -1669,10 +2690,14 @@
       <c r="C75" s="3" t="s">
         <v>14</v>
       </c>
-    </row>
-    <row r="76">
+      <c r="D75" s="4"/>
+      <c r="E75" s="4"/>
+      <c r="F75" s="4"/>
+      <c r="G75" s="4"/>
+    </row>
+    <row r="76" customHeight="1" spans="1:7">
       <c r="A76" s="3">
-        <v>75.0</v>
+        <v>75</v>
       </c>
       <c r="B76" s="3" t="s">
         <v>98</v>
@@ -1680,10 +2705,14 @@
       <c r="C76" s="3" t="s">
         <v>14</v>
       </c>
-    </row>
-    <row r="77">
+      <c r="D76" s="4"/>
+      <c r="E76" s="4"/>
+      <c r="F76" s="4"/>
+      <c r="G76" s="4"/>
+    </row>
+    <row r="77" customHeight="1" spans="1:7">
       <c r="A77" s="3">
-        <v>76.0</v>
+        <v>76</v>
       </c>
       <c r="B77" s="3" t="s">
         <v>99</v>
@@ -1691,13 +2720,16 @@
       <c r="C77" s="3" t="s">
         <v>14</v>
       </c>
-      <c r="D77" s="4" t="s">
+      <c r="D77" s="6" t="s">
         <v>33</v>
       </c>
-    </row>
-    <row r="78">
+      <c r="E77" s="4"/>
+      <c r="F77" s="4"/>
+      <c r="G77" s="4"/>
+    </row>
+    <row r="78" customHeight="1" spans="1:7">
       <c r="A78" s="3">
-        <v>77.0</v>
+        <v>77</v>
       </c>
       <c r="B78" s="3" t="s">
         <v>100</v>
@@ -1705,10 +2737,14 @@
       <c r="C78" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="79">
+      <c r="D78" s="4"/>
+      <c r="E78" s="4"/>
+      <c r="F78" s="4"/>
+      <c r="G78" s="4"/>
+    </row>
+    <row r="79" customHeight="1" spans="1:7">
       <c r="A79" s="3">
-        <v>78.0</v>
+        <v>78</v>
       </c>
       <c r="B79" s="3" t="s">
         <v>101</v>
@@ -1716,13 +2752,16 @@
       <c r="C79" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="F79" s="4" t="s">
+      <c r="D79" s="4"/>
+      <c r="E79" s="4"/>
+      <c r="F79" s="6" t="s">
         <v>33</v>
       </c>
-    </row>
-    <row r="80">
+      <c r="G79" s="4"/>
+    </row>
+    <row r="80" customHeight="1" spans="1:7">
       <c r="A80" s="3">
-        <v>79.0</v>
+        <v>79</v>
       </c>
       <c r="B80" s="3" t="s">
         <v>102</v>
@@ -1730,10 +2769,14 @@
       <c r="C80" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="81">
+      <c r="D80" s="4"/>
+      <c r="E80" s="4"/>
+      <c r="F80" s="4"/>
+      <c r="G80" s="4"/>
+    </row>
+    <row r="81" customHeight="1" spans="1:7">
       <c r="A81" s="3">
-        <v>80.0</v>
+        <v>80</v>
       </c>
       <c r="B81" s="3" t="s">
         <v>103</v>
@@ -1741,10 +2784,14 @@
       <c r="C81" s="3" t="s">
         <v>59</v>
       </c>
-    </row>
-    <row r="82">
+      <c r="D81" s="4"/>
+      <c r="E81" s="4"/>
+      <c r="F81" s="4"/>
+      <c r="G81" s="4"/>
+    </row>
+    <row r="82" customHeight="1" spans="1:7">
       <c r="A82" s="3">
-        <v>81.0</v>
+        <v>81</v>
       </c>
       <c r="B82" s="3" t="s">
         <v>104</v>
@@ -1752,13 +2799,16 @@
       <c r="C82" s="3" t="s">
         <v>59</v>
       </c>
-      <c r="D82" s="4" t="s">
+      <c r="D82" s="6" t="s">
         <v>33</v>
       </c>
-    </row>
-    <row r="83">
+      <c r="E82" s="4"/>
+      <c r="F82" s="4"/>
+      <c r="G82" s="4"/>
+    </row>
+    <row r="83" customHeight="1" spans="1:7">
       <c r="A83" s="3">
-        <v>82.0</v>
+        <v>82</v>
       </c>
       <c r="B83" s="3" t="s">
         <v>105</v>
@@ -1766,13 +2816,16 @@
       <c r="C83" s="3" t="s">
         <v>59</v>
       </c>
-      <c r="D83" s="4" t="s">
+      <c r="D83" s="6" t="s">
         <v>33</v>
       </c>
-    </row>
-    <row r="84">
+      <c r="E83" s="4"/>
+      <c r="F83" s="4"/>
+      <c r="G83" s="4"/>
+    </row>
+    <row r="84" customHeight="1" spans="1:7">
       <c r="A84" s="3">
-        <v>83.0</v>
+        <v>83</v>
       </c>
       <c r="B84" s="3" t="s">
         <v>106</v>
@@ -1780,10 +2833,14 @@
       <c r="C84" s="3" t="s">
         <v>59</v>
       </c>
-    </row>
-    <row r="85">
+      <c r="D84" s="4"/>
+      <c r="E84" s="4"/>
+      <c r="F84" s="4"/>
+      <c r="G84" s="4"/>
+    </row>
+    <row r="85" customHeight="1" spans="1:7">
       <c r="A85" s="3">
-        <v>84.0</v>
+        <v>84</v>
       </c>
       <c r="B85" s="3" t="s">
         <v>107</v>
@@ -1791,10 +2848,14 @@
       <c r="C85" s="3" t="s">
         <v>59</v>
       </c>
-    </row>
-    <row r="86">
+      <c r="D85" s="4"/>
+      <c r="E85" s="4"/>
+      <c r="F85" s="4"/>
+      <c r="G85" s="4"/>
+    </row>
+    <row r="86" customHeight="1" spans="1:7">
       <c r="A86" s="3">
-        <v>85.0</v>
+        <v>85</v>
       </c>
       <c r="B86" s="3" t="s">
         <v>108</v>
@@ -1802,13 +2863,16 @@
       <c r="C86" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="D86" s="4" t="s">
+      <c r="D86" s="6" t="s">
         <v>33</v>
       </c>
-    </row>
-    <row r="87">
+      <c r="E86" s="4"/>
+      <c r="F86" s="4"/>
+      <c r="G86" s="4"/>
+    </row>
+    <row r="87" customHeight="1" spans="1:7">
       <c r="A87" s="3">
-        <v>86.0</v>
+        <v>86</v>
       </c>
       <c r="B87" s="3" t="s">
         <v>109</v>
@@ -1816,10 +2880,14 @@
       <c r="C87" s="3" t="s">
         <v>12</v>
       </c>
-    </row>
-    <row r="88">
+      <c r="D87" s="4"/>
+      <c r="E87" s="4"/>
+      <c r="F87" s="4"/>
+      <c r="G87" s="4"/>
+    </row>
+    <row r="88" customHeight="1" spans="1:7">
       <c r="A88" s="3">
-        <v>87.0</v>
+        <v>87</v>
       </c>
       <c r="B88" s="3" t="s">
         <v>110</v>
@@ -1827,13 +2895,16 @@
       <c r="C88" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="G88" s="4" t="s">
+      <c r="D88" s="4"/>
+      <c r="E88" s="4"/>
+      <c r="F88" s="4"/>
+      <c r="G88" s="6" t="s">
         <v>33</v>
       </c>
     </row>
-    <row r="89">
+    <row r="89" customHeight="1" spans="1:7">
       <c r="A89" s="3">
-        <v>88.0</v>
+        <v>88</v>
       </c>
       <c r="B89" s="3" t="s">
         <v>111</v>
@@ -1841,13 +2912,16 @@
       <c r="C89" s="3" t="s">
         <v>14</v>
       </c>
-      <c r="G89" s="4" t="s">
+      <c r="D89" s="4"/>
+      <c r="E89" s="4"/>
+      <c r="F89" s="4"/>
+      <c r="G89" s="6" t="s">
         <v>33</v>
       </c>
     </row>
-    <row r="90">
+    <row r="90" customHeight="1" spans="1:7">
       <c r="A90" s="3">
-        <v>89.0</v>
+        <v>89</v>
       </c>
       <c r="B90" s="3" t="s">
         <v>112</v>
@@ -1855,10 +2929,14 @@
       <c r="C90" s="3" t="s">
         <v>35</v>
       </c>
-    </row>
-    <row r="91">
+      <c r="D90" s="4"/>
+      <c r="E90" s="4"/>
+      <c r="F90" s="4"/>
+      <c r="G90" s="4"/>
+    </row>
+    <row r="91" customHeight="1" spans="1:7">
       <c r="A91" s="3">
-        <v>90.0</v>
+        <v>90</v>
       </c>
       <c r="B91" s="3" t="s">
         <v>113</v>
@@ -1866,10 +2944,14 @@
       <c r="C91" s="3" t="s">
         <v>35</v>
       </c>
-    </row>
-    <row r="92">
+      <c r="D91" s="4"/>
+      <c r="E91" s="4"/>
+      <c r="F91" s="4"/>
+      <c r="G91" s="4"/>
+    </row>
+    <row r="92" customHeight="1" spans="1:7">
       <c r="A92" s="3">
-        <v>91.0</v>
+        <v>91</v>
       </c>
       <c r="B92" s="3" t="s">
         <v>114</v>
@@ -1877,13 +2959,16 @@
       <c r="C92" s="3" t="s">
         <v>35</v>
       </c>
-      <c r="F92" s="4" t="s">
+      <c r="D92" s="4"/>
+      <c r="E92" s="4"/>
+      <c r="F92" s="6" t="s">
         <v>33</v>
       </c>
-    </row>
-    <row r="93">
+      <c r="G92" s="4"/>
+    </row>
+    <row r="93" customHeight="1" spans="1:7">
       <c r="A93" s="3">
-        <v>92.0</v>
+        <v>92</v>
       </c>
       <c r="B93" s="3" t="s">
         <v>115</v>
@@ -1891,10 +2976,14 @@
       <c r="C93" s="3" t="s">
         <v>39</v>
       </c>
-    </row>
-    <row r="94">
+      <c r="D93" s="4"/>
+      <c r="E93" s="4"/>
+      <c r="F93" s="4"/>
+      <c r="G93" s="4"/>
+    </row>
+    <row r="94" customHeight="1" spans="1:7">
       <c r="A94" s="3">
-        <v>93.0</v>
+        <v>93</v>
       </c>
       <c r="B94" s="3" t="s">
         <v>116</v>
@@ -1902,10 +2991,14 @@
       <c r="C94" s="3" t="s">
         <v>39</v>
       </c>
-    </row>
-    <row r="95">
+      <c r="D94" s="4"/>
+      <c r="E94" s="4"/>
+      <c r="F94" s="4"/>
+      <c r="G94" s="4"/>
+    </row>
+    <row r="95" customHeight="1" spans="1:7">
       <c r="A95" s="3">
-        <v>94.0</v>
+        <v>94</v>
       </c>
       <c r="B95" s="3" t="s">
         <v>117</v>
@@ -1913,13 +3006,16 @@
       <c r="C95" s="3" t="s">
         <v>39</v>
       </c>
-      <c r="D95" s="4" t="s">
+      <c r="D95" s="6" t="s">
         <v>33</v>
       </c>
-    </row>
-    <row r="96">
+      <c r="E95" s="4"/>
+      <c r="F95" s="4"/>
+      <c r="G95" s="4"/>
+    </row>
+    <row r="96" customHeight="1" spans="1:7">
       <c r="A96" s="3">
-        <v>95.0</v>
+        <v>95</v>
       </c>
       <c r="B96" s="3" t="s">
         <v>118</v>
@@ -1927,10 +3023,14 @@
       <c r="C96" s="3" t="s">
         <v>119</v>
       </c>
-    </row>
-    <row r="97">
+      <c r="D96" s="4"/>
+      <c r="E96" s="4"/>
+      <c r="F96" s="4"/>
+      <c r="G96" s="4"/>
+    </row>
+    <row r="97" customHeight="1" spans="1:7">
       <c r="A97" s="3">
-        <v>96.0</v>
+        <v>96</v>
       </c>
       <c r="B97" s="3" t="s">
         <v>120</v>
@@ -1938,13 +3038,16 @@
       <c r="C97" s="3" t="s">
         <v>119</v>
       </c>
-      <c r="D97" s="4" t="s">
+      <c r="D97" s="6" t="s">
         <v>33</v>
       </c>
-    </row>
-    <row r="98">
+      <c r="E97" s="4"/>
+      <c r="F97" s="4"/>
+      <c r="G97" s="4"/>
+    </row>
+    <row r="98" customHeight="1" spans="1:7">
       <c r="A98" s="3">
-        <v>97.0</v>
+        <v>97</v>
       </c>
       <c r="B98" s="3" t="s">
         <v>121</v>
@@ -1952,10 +3055,14 @@
       <c r="C98" s="3" t="s">
         <v>122</v>
       </c>
-    </row>
-    <row r="99">
+      <c r="D98" s="4"/>
+      <c r="E98" s="4"/>
+      <c r="F98" s="4"/>
+      <c r="G98" s="4"/>
+    </row>
+    <row r="99" customHeight="1" spans="1:7">
       <c r="A99" s="3">
-        <v>98.0</v>
+        <v>98</v>
       </c>
       <c r="B99" s="3" t="s">
         <v>123</v>
@@ -1963,10 +3070,14 @@
       <c r="C99" s="3" t="s">
         <v>122</v>
       </c>
-    </row>
-    <row r="100">
+      <c r="D99" s="4"/>
+      <c r="E99" s="4"/>
+      <c r="F99" s="4"/>
+      <c r="G99" s="4"/>
+    </row>
+    <row r="100" customHeight="1" spans="1:7">
       <c r="A100" s="3">
-        <v>99.0</v>
+        <v>99</v>
       </c>
       <c r="B100" s="3" t="s">
         <v>124</v>
@@ -1974,10 +3085,14 @@
       <c r="C100" s="3" t="s">
         <v>125</v>
       </c>
-    </row>
-    <row r="101">
+      <c r="D100" s="4"/>
+      <c r="E100" s="4"/>
+      <c r="F100" s="4"/>
+      <c r="G100" s="4"/>
+    </row>
+    <row r="101" customHeight="1" spans="1:7">
       <c r="A101" s="3">
-        <v>100.0</v>
+        <v>100</v>
       </c>
       <c r="B101" s="3" t="s">
         <v>126</v>
@@ -1985,10 +3100,14 @@
       <c r="C101" s="3" t="s">
         <v>47</v>
       </c>
-    </row>
-    <row r="102">
+      <c r="D101" s="4"/>
+      <c r="E101" s="4"/>
+      <c r="F101" s="4"/>
+      <c r="G101" s="4"/>
+    </row>
+    <row r="102" customHeight="1" spans="1:7">
       <c r="A102" s="3">
-        <v>101.0</v>
+        <v>101</v>
       </c>
       <c r="B102" s="3" t="s">
         <v>127</v>
@@ -1996,49 +3115,65 @@
       <c r="C102" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="E102" s="4" t="s">
+      <c r="D102" s="4"/>
+      <c r="E102" s="6" t="s">
         <v>33</v>
       </c>
-    </row>
-    <row r="103">
+      <c r="F102" s="4"/>
+      <c r="G102" s="4"/>
+    </row>
+    <row r="103" customHeight="1" spans="1:7">
       <c r="A103" s="3">
-        <v>102.0</v>
-      </c>
-      <c r="B103" s="4" t="s">
+        <v>102</v>
+      </c>
+      <c r="B103" s="6" t="s">
         <v>128</v>
       </c>
-      <c r="C103" s="4" t="s">
+      <c r="C103" s="6" t="s">
         <v>23</v>
       </c>
-    </row>
-    <row r="104">
+      <c r="D103" s="4"/>
+      <c r="E103" s="4"/>
+      <c r="F103" s="4"/>
+      <c r="G103" s="4"/>
+    </row>
+    <row r="104" customHeight="1" spans="1:7">
       <c r="A104" s="3">
-        <v>103.0</v>
-      </c>
-      <c r="B104" s="4" t="s">
+        <v>103</v>
+      </c>
+      <c r="B104" s="6" t="s">
         <v>129</v>
       </c>
-      <c r="C104" s="4" t="s">
+      <c r="C104" s="6" t="s">
         <v>39</v>
       </c>
-    </row>
-    <row r="105">
+      <c r="D104" s="4"/>
+      <c r="E104" s="4" t="s">
+        <v>33</v>
+      </c>
+      <c r="F104" s="4"/>
+      <c r="G104" s="4"/>
+    </row>
+    <row r="105" customHeight="1" spans="1:7">
       <c r="A105" s="3">
-        <v>104.0</v>
-      </c>
-      <c r="B105" s="4" t="s">
+        <v>104</v>
+      </c>
+      <c r="B105" s="6" t="s">
         <v>130</v>
       </c>
-      <c r="C105" s="4" t="s">
+      <c r="C105" s="6" t="s">
         <v>8</v>
       </c>
-      <c r="F105" s="4" t="s">
+      <c r="D105" s="4"/>
+      <c r="E105" s="4"/>
+      <c r="F105" s="6" t="s">
         <v>33</v>
       </c>
-    </row>
-    <row r="106">
+      <c r="G105" s="4"/>
+    </row>
+    <row r="106" customHeight="1" spans="1:7">
       <c r="A106" s="3">
-        <v>105.0</v>
+        <v>105</v>
       </c>
       <c r="B106" s="3" t="s">
         <v>131</v>
@@ -2046,364 +3181,529 @@
       <c r="C106" s="3" t="s">
         <v>47</v>
       </c>
-    </row>
-    <row r="107">
+      <c r="D106" s="4"/>
+      <c r="E106" s="4"/>
+      <c r="F106" s="4"/>
+      <c r="G106" s="4"/>
+    </row>
+    <row r="107" customHeight="1" spans="1:7">
       <c r="A107" s="3">
-        <v>106.0</v>
-      </c>
-      <c r="B107" s="4" t="s">
+        <v>106</v>
+      </c>
+      <c r="B107" s="6" t="s">
         <v>132</v>
       </c>
-      <c r="C107" s="4" t="s">
+      <c r="C107" s="6" t="s">
         <v>12</v>
       </c>
-    </row>
-    <row r="108">
+      <c r="D107" s="4"/>
+      <c r="E107" s="4"/>
+      <c r="F107" s="4"/>
+      <c r="G107" s="4"/>
+    </row>
+    <row r="108" customHeight="1" spans="1:7">
       <c r="A108" s="3">
-        <v>107.0</v>
-      </c>
-      <c r="B108" s="4" t="s">
+        <v>107</v>
+      </c>
+      <c r="B108" s="6" t="s">
         <v>133</v>
       </c>
-      <c r="C108" s="4" t="s">
+      <c r="C108" s="6" t="s">
         <v>12</v>
       </c>
-    </row>
-    <row r="109">
+      <c r="D108" s="4"/>
+      <c r="E108" s="4"/>
+      <c r="F108" s="4"/>
+      <c r="G108" s="4"/>
+    </row>
+    <row r="109" customHeight="1" spans="1:7">
       <c r="A109" s="3">
-        <v>108.0</v>
-      </c>
-      <c r="B109" s="4" t="s">
+        <v>108</v>
+      </c>
+      <c r="B109" s="6" t="s">
         <v>134</v>
       </c>
-      <c r="C109" s="4" t="s">
+      <c r="C109" s="6" t="s">
         <v>23</v>
       </c>
-    </row>
-    <row r="110">
+      <c r="D109" s="4"/>
+      <c r="E109" s="4"/>
+      <c r="F109" s="4"/>
+      <c r="G109" s="4"/>
+    </row>
+    <row r="110" customHeight="1" spans="1:7">
       <c r="A110" s="3">
-        <v>109.0</v>
-      </c>
-      <c r="B110" s="4" t="s">
+        <v>109</v>
+      </c>
+      <c r="B110" s="6" t="s">
         <v>135</v>
       </c>
-      <c r="C110" s="4" t="s">
+      <c r="C110" s="6" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="111">
+      <c r="D110" s="4"/>
+      <c r="E110" s="4"/>
+      <c r="F110" s="4"/>
+      <c r="G110" s="4"/>
+    </row>
+    <row r="111" customHeight="1" spans="1:7">
       <c r="A111" s="3">
-        <v>110.0</v>
-      </c>
-      <c r="B111" s="4" t="s">
+        <v>110</v>
+      </c>
+      <c r="B111" s="6" t="s">
         <v>136</v>
       </c>
-      <c r="C111" s="4" t="s">
+      <c r="C111" s="6" t="s">
         <v>12</v>
       </c>
-    </row>
-    <row r="112">
+      <c r="D111" s="4"/>
+      <c r="E111" s="4"/>
+      <c r="F111" s="4"/>
+      <c r="G111" s="4"/>
+    </row>
+    <row r="112" customHeight="1" spans="1:7">
       <c r="A112" s="3">
-        <v>111.0</v>
-      </c>
-      <c r="B112" s="4" t="s">
+        <v>111</v>
+      </c>
+      <c r="B112" s="6" t="s">
         <v>137</v>
       </c>
-      <c r="C112" s="4" t="s">
+      <c r="C112" s="6" t="s">
         <v>8</v>
       </c>
-      <c r="G112" s="4" t="s">
+      <c r="D112" s="4"/>
+      <c r="E112" s="4"/>
+      <c r="F112" s="4"/>
+      <c r="G112" s="6" t="s">
         <v>33</v>
       </c>
     </row>
-    <row r="113">
+    <row r="113" customHeight="1" spans="1:7">
       <c r="A113" s="3">
-        <v>112.0</v>
-      </c>
-      <c r="B113" s="4" t="s">
+        <v>112</v>
+      </c>
+      <c r="B113" s="6" t="s">
         <v>138</v>
       </c>
-      <c r="C113" s="4" t="s">
+      <c r="C113" s="6" t="s">
         <v>12</v>
       </c>
-    </row>
-    <row r="114">
+      <c r="D113" s="4"/>
+      <c r="E113" s="4"/>
+      <c r="F113" s="4"/>
+      <c r="G113" s="4"/>
+    </row>
+    <row r="114" customHeight="1" spans="1:7">
       <c r="A114" s="3">
-        <v>113.0</v>
-      </c>
-      <c r="B114" s="4" t="s">
+        <v>113</v>
+      </c>
+      <c r="B114" s="6" t="s">
         <v>139</v>
       </c>
-      <c r="C114" s="4" t="s">
+      <c r="C114" s="6" t="s">
         <v>23</v>
       </c>
-    </row>
-    <row r="115">
+      <c r="D114" s="4"/>
+      <c r="E114" s="4"/>
+      <c r="F114" s="4"/>
+      <c r="G114" s="4"/>
+    </row>
+    <row r="115" customHeight="1" spans="1:7">
       <c r="A115" s="3">
-        <v>114.0</v>
-      </c>
-      <c r="B115" s="4" t="s">
+        <v>114</v>
+      </c>
+      <c r="B115" s="6" t="s">
         <v>140</v>
       </c>
-      <c r="C115" s="4" t="s">
+      <c r="C115" s="6" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="116">
+      <c r="D115" s="4"/>
+      <c r="E115" s="4"/>
+      <c r="F115" s="4"/>
+      <c r="G115" s="4"/>
+    </row>
+    <row r="116" customHeight="1" spans="1:7">
       <c r="A116" s="3">
-        <v>115.0</v>
-      </c>
-      <c r="B116" s="4" t="s">
+        <v>115</v>
+      </c>
+      <c r="B116" s="6" t="s">
         <v>141</v>
       </c>
-      <c r="C116" s="4" t="s">
+      <c r="C116" s="6" t="s">
         <v>142</v>
       </c>
-    </row>
-    <row r="117">
+      <c r="D116" s="4"/>
+      <c r="E116" s="4"/>
+      <c r="F116" s="4"/>
+      <c r="G116" s="4"/>
+    </row>
+    <row r="117" customHeight="1" spans="1:7">
       <c r="A117" s="3">
-        <v>116.0</v>
-      </c>
-      <c r="B117" s="4" t="s">
+        <v>116</v>
+      </c>
+      <c r="B117" s="6" t="s">
         <v>143</v>
       </c>
-      <c r="C117" s="4" t="s">
+      <c r="C117" s="6" t="s">
         <v>47</v>
       </c>
-      <c r="D117" s="4" t="s">
+      <c r="D117" s="6" t="s">
         <v>33</v>
       </c>
-    </row>
-    <row r="118">
+      <c r="E117" s="4"/>
+      <c r="F117" s="4"/>
+      <c r="G117" s="4"/>
+    </row>
+    <row r="118" customHeight="1" spans="1:7">
       <c r="A118" s="3">
-        <v>117.0</v>
-      </c>
-      <c r="B118" s="4" t="s">
+        <v>117</v>
+      </c>
+      <c r="B118" s="6" t="s">
         <v>144</v>
       </c>
-      <c r="C118" s="4" t="s">
+      <c r="C118" s="6" t="s">
         <v>12</v>
       </c>
-    </row>
-    <row r="119">
+      <c r="D118" s="4"/>
+      <c r="E118" s="4"/>
+      <c r="F118" s="4"/>
+      <c r="G118" s="4"/>
+    </row>
+    <row r="119" customHeight="1" spans="1:7">
       <c r="A119" s="3">
-        <v>118.0</v>
-      </c>
-      <c r="B119" s="6" t="s">
+        <v>118</v>
+      </c>
+      <c r="B119" s="7" t="s">
         <v>145</v>
       </c>
-      <c r="C119" s="4" t="s">
+      <c r="C119" s="6" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="120">
+      <c r="D119" s="4"/>
+      <c r="E119" s="4"/>
+      <c r="F119" s="4"/>
+      <c r="G119" s="4"/>
+    </row>
+    <row r="120" customHeight="1" spans="1:7">
       <c r="A120" s="3">
-        <v>119.0</v>
-      </c>
-      <c r="B120" s="4" t="s">
+        <v>119</v>
+      </c>
+      <c r="B120" s="6" t="s">
         <v>146</v>
       </c>
-      <c r="C120" s="4" t="s">
+      <c r="C120" s="6" t="s">
         <v>35</v>
       </c>
-    </row>
-    <row r="121">
+      <c r="D120" s="4"/>
+      <c r="E120" s="4"/>
+      <c r="F120" s="4"/>
+      <c r="G120" s="4"/>
+    </row>
+    <row r="121" customHeight="1" spans="1:7">
       <c r="A121" s="3">
-        <v>120.0</v>
-      </c>
-      <c r="B121" s="4" t="s">
+        <v>120</v>
+      </c>
+      <c r="B121" s="6" t="s">
         <v>147</v>
       </c>
-      <c r="C121" s="4" t="s">
+      <c r="C121" s="6" t="s">
         <v>35</v>
       </c>
-    </row>
-    <row r="122">
+      <c r="D121" s="4"/>
+      <c r="E121" s="4"/>
+      <c r="F121" s="4"/>
+      <c r="G121" s="4"/>
+    </row>
+    <row r="122" customHeight="1" spans="1:7">
       <c r="A122" s="3">
-        <v>121.0</v>
-      </c>
-      <c r="B122" s="4" t="s">
+        <v>121</v>
+      </c>
+      <c r="B122" s="6" t="s">
         <v>148</v>
       </c>
-      <c r="C122" s="4" t="s">
+      <c r="C122" s="6" t="s">
         <v>39</v>
       </c>
-    </row>
-    <row r="123">
+      <c r="D122" s="4"/>
+      <c r="E122" s="4"/>
+      <c r="F122" s="4"/>
+      <c r="G122" s="4"/>
+    </row>
+    <row r="123" customHeight="1" spans="1:7">
       <c r="A123" s="3">
-        <v>122.0</v>
-      </c>
-      <c r="B123" s="4" t="s">
+        <v>122</v>
+      </c>
+      <c r="B123" s="6" t="s">
         <v>149</v>
       </c>
-      <c r="C123" s="4" t="s">
+      <c r="C123" s="6" t="s">
         <v>12</v>
       </c>
-      <c r="D123" s="4" t="s">
+      <c r="D123" s="6" t="s">
         <v>33</v>
       </c>
-    </row>
-    <row r="124">
+      <c r="E123" s="4"/>
+      <c r="F123" s="4"/>
+      <c r="G123" s="4"/>
+    </row>
+    <row r="124" customHeight="1" spans="1:7">
       <c r="A124" s="3">
-        <v>123.0</v>
-      </c>
-      <c r="B124" s="4" t="s">
+        <v>123</v>
+      </c>
+      <c r="B124" s="6" t="s">
         <v>150</v>
       </c>
-      <c r="C124" s="4" t="s">
+      <c r="C124" s="6" t="s">
         <v>59</v>
       </c>
-    </row>
-    <row r="125">
+      <c r="D124" s="4"/>
+      <c r="E124" s="4"/>
+      <c r="F124" s="4"/>
+      <c r="G124" s="4"/>
+    </row>
+    <row r="125" customHeight="1" spans="1:7">
       <c r="A125" s="3">
-        <v>124.0</v>
-      </c>
-      <c r="B125" s="4" t="s">
+        <v>124</v>
+      </c>
+      <c r="B125" s="6" t="s">
         <v>151</v>
       </c>
-      <c r="C125" s="4" t="s">
+      <c r="C125" s="6" t="s">
         <v>12</v>
       </c>
-    </row>
-    <row r="126">
+      <c r="D125" s="4"/>
+      <c r="E125" s="4"/>
+      <c r="F125" s="4"/>
+      <c r="G125" s="4"/>
+    </row>
+    <row r="126" customHeight="1" spans="1:7">
       <c r="A126" s="3">
-        <v>125.0</v>
-      </c>
-      <c r="B126" s="4" t="s">
+        <v>125</v>
+      </c>
+      <c r="B126" s="6" t="s">
         <v>152</v>
       </c>
-      <c r="C126" s="4" t="s">
+      <c r="C126" s="6" t="s">
         <v>153</v>
       </c>
-      <c r="D126" s="4" t="s">
+      <c r="D126" s="6" t="s">
         <v>33</v>
       </c>
-    </row>
-    <row r="127">
+      <c r="E126" s="4"/>
+      <c r="F126" s="4"/>
+      <c r="G126" s="4"/>
+    </row>
+    <row r="127" customHeight="1" spans="1:7">
       <c r="A127" s="3">
-        <v>126.0</v>
-      </c>
-      <c r="B127" s="4" t="s">
+        <v>126</v>
+      </c>
+      <c r="B127" s="6" t="s">
         <v>154</v>
       </c>
-      <c r="C127" s="4" t="s">
+      <c r="C127" s="6" t="s">
         <v>12</v>
       </c>
-    </row>
-    <row r="128">
+      <c r="D127" s="4"/>
+      <c r="E127" s="4"/>
+      <c r="F127" s="4"/>
+      <c r="G127" s="4"/>
+    </row>
+    <row r="128" customHeight="1" spans="1:7">
       <c r="A128" s="3">
-        <v>127.0</v>
-      </c>
-      <c r="B128" s="4" t="s">
+        <v>127</v>
+      </c>
+      <c r="B128" s="6" t="s">
         <v>155</v>
       </c>
-      <c r="C128" s="4" t="s">
+      <c r="C128" s="6" t="s">
         <v>14</v>
       </c>
-    </row>
-    <row r="129">
+      <c r="D128" s="4"/>
+      <c r="E128" s="4"/>
+      <c r="F128" s="4"/>
+      <c r="G128" s="4"/>
+    </row>
+    <row r="129" customHeight="1" spans="1:7">
       <c r="A129" s="3">
-        <v>128.0</v>
-      </c>
-      <c r="B129" s="4" t="s">
+        <v>128</v>
+      </c>
+      <c r="B129" s="6" t="s">
         <v>156</v>
       </c>
-      <c r="C129" s="4" t="s">
+      <c r="C129" s="6" t="s">
         <v>119</v>
       </c>
-      <c r="D129" s="4" t="s">
+      <c r="D129" s="6" t="s">
         <v>33</v>
       </c>
-    </row>
-    <row r="130">
+      <c r="E129" s="4"/>
+      <c r="F129" s="4"/>
+      <c r="G129" s="4"/>
+    </row>
+    <row r="130" customHeight="1" spans="1:7">
       <c r="A130" s="3">
-        <v>129.0</v>
-      </c>
-      <c r="B130" s="4" t="s">
+        <v>129</v>
+      </c>
+      <c r="B130" s="6" t="s">
         <v>157</v>
       </c>
-      <c r="C130" s="4" t="s">
+      <c r="C130" s="6" t="s">
         <v>158</v>
       </c>
-    </row>
-    <row r="131">
+      <c r="D130" s="4"/>
+      <c r="E130" s="4"/>
+      <c r="F130" s="4"/>
+      <c r="G130" s="4"/>
+    </row>
+    <row r="131" customHeight="1" spans="1:7">
       <c r="A131" s="3">
-        <v>130.0</v>
-      </c>
-      <c r="B131" s="4" t="s">
+        <v>130</v>
+      </c>
+      <c r="B131" s="6" t="s">
         <v>159</v>
       </c>
-      <c r="C131" s="4" t="s">
+      <c r="C131" s="6" t="s">
         <v>47</v>
       </c>
-    </row>
-    <row r="132">
+      <c r="D131" s="4"/>
+      <c r="E131" s="4"/>
+      <c r="F131" s="4"/>
+      <c r="G131" s="4"/>
+    </row>
+    <row r="132" customHeight="1" spans="1:7">
       <c r="A132" s="3">
-        <v>131.0</v>
-      </c>
-      <c r="B132" s="4" t="s">
+        <v>131</v>
+      </c>
+      <c r="B132" s="6" t="s">
         <v>160</v>
       </c>
-      <c r="C132" s="4" t="s">
+      <c r="C132" s="6" t="s">
         <v>23</v>
       </c>
-    </row>
-    <row r="133">
+      <c r="D132" s="4"/>
+      <c r="E132" s="4"/>
+      <c r="F132" s="4"/>
+      <c r="G132" s="4"/>
+    </row>
+    <row r="133" customHeight="1" spans="1:7">
       <c r="A133" s="3">
-        <v>132.0</v>
-      </c>
-      <c r="B133" s="4" t="s">
+        <v>132</v>
+      </c>
+      <c r="B133" s="6" t="s">
         <v>161</v>
       </c>
-      <c r="C133" s="4" t="s">
+      <c r="C133" s="6" t="s">
         <v>14</v>
       </c>
-      <c r="D133" s="4" t="s">
+      <c r="D133" s="6" t="s">
         <v>33</v>
       </c>
-      <c r="G133" s="4" t="s">
+      <c r="E133" s="4"/>
+      <c r="F133" s="4"/>
+      <c r="G133" s="6" t="s">
         <v>33</v>
       </c>
     </row>
-    <row r="134">
+    <row r="134" customHeight="1" spans="1:7">
       <c r="A134" s="3">
-        <v>133.0</v>
-      </c>
-      <c r="B134" s="4" t="s">
+        <v>133</v>
+      </c>
+      <c r="B134" s="6" t="s">
         <v>162</v>
       </c>
-      <c r="C134" s="4" t="s">
+      <c r="C134" s="6" t="s">
         <v>163</v>
       </c>
-    </row>
-    <row r="135">
+      <c r="D134" s="4"/>
+      <c r="E134" s="4"/>
+      <c r="F134" s="4"/>
+      <c r="G134" s="4"/>
+    </row>
+    <row r="135" customHeight="1" spans="1:7">
       <c r="A135" s="3">
-        <v>134.0</v>
-      </c>
-      <c r="B135" s="4" t="s">
+        <v>134</v>
+      </c>
+      <c r="B135" s="6" t="s">
         <v>164</v>
       </c>
-      <c r="C135" s="4" t="s">
+      <c r="C135" s="6" t="s">
         <v>165</v>
       </c>
-    </row>
-    <row r="136">
+      <c r="D135" s="4"/>
+      <c r="E135" s="4"/>
+      <c r="F135" s="4"/>
+      <c r="G135" s="4"/>
+    </row>
+    <row r="136" customHeight="1" spans="1:7">
       <c r="A136" s="3">
-        <v>135.0</v>
-      </c>
-      <c r="B136" s="4" t="s">
+        <v>135</v>
+      </c>
+      <c r="B136" s="6" t="s">
         <v>166</v>
       </c>
-      <c r="C136" s="4" t="s">
+      <c r="C136" s="6" t="s">
         <v>8</v>
       </c>
+      <c r="D136" s="4"/>
+      <c r="E136" s="4"/>
+      <c r="F136" s="4"/>
+      <c r="G136" s="4"/>
+    </row>
+    <row r="137" customHeight="1" spans="1:7">
+      <c r="A137" s="8">
+        <v>136</v>
+      </c>
+      <c r="B137" s="4" t="s">
+        <v>167</v>
+      </c>
+      <c r="C137" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="D137" s="4"/>
+      <c r="E137" s="4"/>
+      <c r="F137" s="4"/>
+      <c r="G137" s="4"/>
+    </row>
+    <row r="138" customHeight="1" spans="1:7">
+      <c r="A138" s="9">
+        <v>137</v>
+      </c>
+      <c r="B138" s="10" t="s">
+        <v>168</v>
+      </c>
+      <c r="C138" s="10" t="s">
+        <v>8</v>
+      </c>
+      <c r="D138" s="10"/>
+      <c r="E138" s="10"/>
+      <c r="F138" s="10"/>
+      <c r="G138" s="10"/>
+    </row>
+    <row r="139" customHeight="1" spans="1:7">
+      <c r="A139" s="9">
+        <v>138</v>
+      </c>
+      <c r="B139" s="10" t="s">
+        <v>169</v>
+      </c>
+      <c r="C139" s="10" t="s">
+        <v>170</v>
+      </c>
+      <c r="D139" s="10" t="s">
+        <v>33</v>
+      </c>
+      <c r="E139" s="10"/>
+      <c r="F139" s="10"/>
+      <c r="G139" s="10"/>
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink r:id="rId1" ref="B25"/>
-    <hyperlink r:id="rId2" ref="B36"/>
-    <hyperlink r:id="rId3" ref="B42"/>
+    <hyperlink ref="B25" r:id="rId1" display="iNDX.Ai"/>
+    <hyperlink ref="B36" r:id="rId2" display="Aarogya.AI"/>
+    <hyperlink ref="B42" r:id="rId3" display="RGCS.in"/>
   </hyperlinks>
-  <drawing r:id="rId4"/>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <headerFooter/>
 </worksheet>
 </file>